--- a/16172-LAB SP-ITE3 2B-S312.xlsx
+++ b/16172-LAB SP-ITE3 2B-S312.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive\16172-Attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="LAB" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="37">
   <si>
     <t>TN</t>
   </si>
@@ -598,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -613,7 +613,7 @@
     <col min="15" max="16384" width="14.453125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,8 +635,17 @@
       <c r="H1" s="3">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="3">
+        <v>2.14</v>
+      </c>
+      <c r="K1" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -649,8 +658,11 @@
       <c r="E2" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -667,7 +679,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -676,7 +688,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -690,7 +702,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -703,8 +715,11 @@
       <c r="E6" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -723,8 +738,11 @@
       <c r="H7" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -744,7 +762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="10"/>
@@ -753,12 +771,12 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -772,7 +790,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -790,7 +808,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -804,7 +822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -818,7 +836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -832,7 +850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -846,13 +864,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -866,7 +884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -876,7 +894,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -890,7 +908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -906,8 +924,11 @@
       <c r="H21" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -915,7 +936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -933,18 +954,18 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -957,8 +978,11 @@
       <c r="E26" s="6">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J26" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -971,8 +995,11 @@
       <c r="E27" s="6">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J27" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -986,7 +1013,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" s="11" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
@@ -996,13 +1023,13 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>27</v>
       </c>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -1021,8 +1048,11 @@
       <c r="H31" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J31" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -1041,8 +1071,11 @@
       <c r="H32" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J32" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -1056,7 +1089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>31</v>
       </c>
@@ -1073,8 +1106,11 @@
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="J34" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -1088,7 +1124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -1105,7 +1141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -1119,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -1136,40 +1172,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
     </row>
     <row r="49" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
@@ -1201,7 +1237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
